--- a/Android/Chart_CoinMarketCap_API.xlsx
+++ b/Android/Chart_CoinMarketCap_API.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine.brainwilliam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine.brainwilliam/AndroidOBTProject/Chart/Android/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -577,25 +577,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E40"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,8 +891,8 @@
     <col min="1" max="1" width="49.1640625" customWidth="1"/>
     <col min="2" max="2" width="79.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.83203125" customWidth="1"/>
-    <col min="5" max="5" width="70.1640625" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" customWidth="1"/>
+    <col min="5" max="5" width="107.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -959,12 +959,22 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:11" ht="289" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -972,112 +982,112 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+    <row r="9" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+    <row r="10" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1085,22 +1095,12 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1109,11 +1109,11 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1122,11 +1122,11 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1135,11 +1135,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1148,11 +1148,11 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1161,11 +1161,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1174,11 +1174,11 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1187,11 +1187,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1200,11 +1200,11 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1213,11 +1213,11 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1226,11 +1226,11 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1239,11 +1239,11 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1252,11 +1252,11 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1264,12 +1264,22 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
+    <row r="26" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1279,10 +1289,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1292,10 +1302,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1304,11 +1314,11 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1317,11 +1327,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1329,22 +1339,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1353,11 +1353,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1366,11 +1366,11 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1379,11 +1379,11 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1392,11 +1392,11 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1404,85 +1404,20 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:K3"/>
-    <mergeCell ref="A9:G11"/>
-    <mergeCell ref="E13:E28"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="A13:A28"/>
-    <mergeCell ref="B13:B28"/>
-    <mergeCell ref="C13:C28"/>
-    <mergeCell ref="D13:D28"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A6:G8"/>
+    <mergeCell ref="E10:E25"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="B10:B25"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="D10:D25"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="A26:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/Chart_CoinMarketCap_API.xlsx
+++ b/Android/Chart_CoinMarketCap_API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,35 +59,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "symbol":"ETHBTC",
-    // 1m ，3m ，5m，15m，30m（minutes）
-    //1h，2h，4h，6h，8h，12h（hours）
-    //1d，3d（days）
-    //1w（weeks）
-    //1M（months）
-    "interval":"1d",
-    "limit":(可选，int) Default 500; max 1000，
-    "startTime":(可选，long),
-    "endTime":(可选，lo)
-}</t>
-    <rPh sb="177" eb="178">
-      <t>ke'xuan</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>ke'xuan</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>ke'xuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/klines</t>
   </si>
   <si>
     <t>[
@@ -123,81 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://pro-api.coinmarketcap.com/v1/cryptocurrency/listings/latest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取加密货币的价格、市值、交易量</t>
   </si>
   <si>
-    <t>https://graphs2.coinmarketcap.com/currencies/</t>
-  </si>
-  <si>
     <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    // 市值数据
-    "market_cap_by_available_supply":[
-        [
-            1367174841000, // 时间戳（毫秒）
-            1500517590 // 价值（USD）
-        ],
-        ...
-    ],
-    // 该货币对应的BTC单价
-    "price_btc":[
-        [
-            1367174841000, // 时间戳（毫秒）
-            1 // 价格（BTC）
-        ],
-        ...
-    ],
-    // 该货币对应的USD单价
-    "price_usd":[
-        [
-            1367174841000, // 时间戳（毫秒）
-            135.3 // 价格（USD）
-        ],
-        ...
-    ],
-    // 交易量
-    "volume_usd":[
-        [
-            1367174841000, // 时间戳（毫秒）
-            0 // 交易量（USD）
-        ],
-        ...
-    ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinName eg:bitcoin 上个接口返回的slug参数
-startTime eg:1541347200000（毫秒） 返回数据起始时间
-endTime eg:1543939200000（毫秒） 返回数据的结束时间
-直接在url后请求参数
-https://graphs2.coinmarketcap.com/currencies/{coinName}/{startTime}/{endTime}/</t>
-    <rPh sb="114" eb="115">
-      <t>zhi'jie</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>qing'qiu</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method 1:BaseUrl:https://api.binance.com (需要VPN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,9 +107,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">请求头添加APIKey :
+    <t>获取当前币种的BTC/USD Price，可用于转换</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhuan huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method 1:BaseUrl:https://api.binance.com (VPN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pro-api.coinmarketcap.com/v1/cryptocurrency/listings/latest?start=1?limit=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.coinmarketcap.com/v1/ticker/?limit=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://graphs2.coinmarketcap.com/currencies/bitcoin/1541347200000/1543939200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[
 {
+"id": "bitcoin",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//币种id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"name": "Bitcoin",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//币种名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"symbol": "BTC",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//币种的标志：用于server交互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"rank": "1",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//当前排序/排名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -218,77 +256,519 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   "X-CMC_PRO_API_KEY":"280c9a41-9dc2-496a-8a6c-4b4063be9345"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-}
-请求参数：
-{
-    "start":1,
-    //可选，默认1， &gt;= 1, 从第几个数据开始返回
-    "limit":100
-    //可选，默认100，返回多少条数据，范围[1...5000]
+      <t>"price_usd": "3565.29058272"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//当前对应法币USD的价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"price_btc": "1.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//当前对应BTC的价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"24h_volume_usd": "5669826336.99",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//24小时的USD交易量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"market_cap_usd": "62138779292.0",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//整个市场的USD交易量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"available_supply": "17428812.0",
+"total_supply": "17428812.0",
+"max_supply": "21000000.0",
+"percent_change_1h": "0.52",
+"percent_change_24h": "9.27",
+"percent_change_7d": "2.18",
+"last_updated": "1545104785"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//最后更新时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+},
+{...}]</t>
+    </r>
+    <rPh sb="22" eb="23">
+      <t>bi zhogn</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bi zhong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ming zi</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>bi zhong</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>de</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jiao hu</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>pai xu</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>pai ming</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>fa bi</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>de</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>de</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>de</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>jiao yi liang</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>zheng ge</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>shi chang</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>de</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>jiao yi l</t>
+    </rPh>
+    <rPh sb="491" eb="492">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="493" eb="494">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="495" eb="496">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    // 市值数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    "market_cap_by_available_supply":[
+        [
+            1367174841000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 时间戳（毫秒）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            1500517590 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 价值（USD）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        ],
+        ...
+    ],
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  // 该货币对应的BTC单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    "price_btc":[
+        [
+            1367174841000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 时间戳（毫秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+            1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> // 价格（BTC）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        ],
+        ...
+    ],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    // 该货币对应的USD单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    "price_usd":[
+        [
+            1367174841000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 时间戳（毫秒）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            135.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> // 价格（USD）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        ],
+        ...
+    ],
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> // 交易量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    "volume_usd":[
+        [
+            1367174841000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> // 时间戳（毫秒）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 交易量（USD）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        ],
+        ...
+    ]
 }</t>
     </r>
-    <rPh sb="0" eb="1">
-      <t>qing'q'tou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tian'jia</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>qing'qiu'can'shu</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ke'xuan</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>mo'ren</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>di'ji'ge</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>ke'xuan</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>mo'ren</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>duo'shao</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>tiao</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>fan'wei</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,24 +794,154 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> "name": "Bitcoin", // 名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-            "symbol": "BTC", // 符号
-            "slug": "bitcoin", // 用于获取该货币详细信息的参数
-            "circulating_supply": 17409400, // 当前流通的大概硬币数量
-            "total_supply": 17409400, //现在存在的大致硬币总量
-            "max_supply": 21000000, // 货币生命周期中存在的最大硬币数量的最佳近似值
+      <t xml:space="preserve"> "name": "Bitcoin",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> // 名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            "symbol": "BTC", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            "slug": "bitcoin", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 用于获取该货币详细信息的参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            "circulating_supply": 17409400, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 当前流通的大概硬币数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            "total_supply": 17409400, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//现在存在的大致硬币总量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            "max_supply": 21000000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 货币生命周期中存在的最大硬币数量的最佳近似值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
             "date_added": "2013-04-28T00:00:00.000Z",
-            "num_market_pairs": 6605, //交易每种货币的所有交易所的市场对数
+            "num_market_pairs": 6605, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//交易每种货币的所有交易所的市场对数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
             "tags": [
                 "mineable"
             ],
@@ -350,21 +960,111 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  "price": 3870.91161297, //当前最新单价</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-                    "volume_24h": 5494767126.2431, // 货币的24小时交易量
-                    "percent_change_1h": 0.101473, //货币的1小时交易价格百分比变化
-                    "percent_change_24h": -0.265327, //货币的24小时交易价格百分比变化
-                    "percent_change_7d": -9.42939, //货币的7天交易价格百分比变化
+      <t xml:space="preserve">  "price": 3870.91161297,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> //当前最新单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                    "volume_24h": 5494767126.2431, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 货币的24小时交易量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                    "percent_change_1h": 0.101473, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//货币的1小时交易价格百分比变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                    "percent_change_24h": -0.265327,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> //货币的24小时交易价格百分比变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                    "percent_change_7d": -9.42939,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> //货币的7天交易价格百分比变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
                    </t>
     </r>
     <r>
@@ -441,12 +1141,125 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/api/v1/klines?symbol=ETHBTC?interval=1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">请求参数参考：
+    symbol:ETHBTC,
+    // 1m ，3m ，5m，15m，30m（minutes）
+    //1h，2h，4h，6h，8h，12h（hours）
+    //1d，3d（days）
+    //1w（weeks）
+    //1M（months）
+    interval:1d,
+    limit:(可选，int) Default 500; max 1000，
+    startTime:(可选，long),
+    endTime:(可选，long)
+</t>
+    <rPh sb="0" eb="1">
+      <t>qign qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ke'xuan</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ke'xuan</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ke'xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数参考：
+coinName eg:bitcoin 上个接口返回的slug参数
+startTime eg:1541347200000（毫秒） 返回数据起始时间
+endTime eg:1543939200000（毫秒） 返回数据的结束时间
+直接在url后请求参数
+https://graphs2.coinmarketcap.com/currencies/{coinName}/{startTime}/{endTime}/</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">请求头添加APIKey :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X-CMC_PRO_API_KEY ：280c9a41-9dc2-496a-8a6c-4b4063be9345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+请求参数参考：
+start:1, //可选，默认1， &gt;= 1, 从第几个数据开始返回
+limit:100 //可选，默认100，返回多少条数据，范围[1...5000]
+   </t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>qing'q'tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>qing'qiu'can'shu</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>can kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,28 +1332,114 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="4"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FF24292E"/>
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="4"/>
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -548,8 +1447,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,52 +1512,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -880,76 +1871,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="72.5" customWidth="1"/>
+    <col min="2" max="2" width="97.5" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="79.33203125" customWidth="1"/>
     <col min="5" max="5" width="107.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1"/>
@@ -960,20 +1951,20 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -983,60 +1974,60 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1"/>
@@ -1047,19 +2038,19 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1"/>
@@ -1069,12 +2060,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
+    <row r="11" spans="1:11" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1083,11 +2074,11 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1096,11 +2087,11 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1109,11 +2100,11 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1122,11 +2113,11 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1135,11 +2126,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1148,11 +2139,11 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1161,11 +2152,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1174,11 +2165,11 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1187,11 +2178,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1200,11 +2191,11 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1213,11 +2204,11 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1226,11 +2217,11 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1239,11 +2230,11 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1252,11 +2243,11 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1265,20 +2256,20 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>15</v>
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1288,11 +2279,11 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1301,11 +2292,11 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1314,11 +2305,11 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1326,12 +2317,12 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
+    <row r="30" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1340,11 +2331,11 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1353,11 +2344,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1366,11 +2357,11 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1379,11 +2370,11 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1392,17 +2383,32 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1420,6 +2426,11 @@
     <mergeCell ref="A26:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId2" display="https://api.coinmarketcap.com/v1/ticker/?limit=20/"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://graphs2.coinmarketcap.com/currencies/bitcoin/1541347200000/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
